--- a/documentation/Supporting tables version 1.22.xlsx
+++ b/documentation/Supporting tables version 1.22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="15000" windowHeight="7035" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="15000" windowHeight="7035" tabRatio="650"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="1955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1957">
   <si>
     <t>id</t>
   </si>
@@ -5956,6 +5956,12 @@
       </rPr>
       <t>7</t>
     </r>
+  </si>
+  <si>
+    <t>P/A</t>
+  </si>
+  <si>
+    <t>Project Assistant</t>
   </si>
 </sst>
 </file>
@@ -7279,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,8 +8572,12 @@
       <c r="C41" s="47" t="s">
         <v>1925</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1956</v>
+      </c>
       <c r="F41" s="48" t="s">
         <v>1922</v>
       </c>
@@ -8737,7 +8747,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,7 +8865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -11405,8 +11415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12737,7 +12747,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
